--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">'BC Tonghop'!$A$12:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$J$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$7:$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -872,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,6 +1265,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -1277,21 +1293,6 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
@@ -17,8 +17,8 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">'BC Tonghop'!$A$12:$I$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$J$35</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$7:$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$B$7:$I$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -874,7 +874,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,21 +1265,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -1293,6 +1278,21 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qlns-ctc-bqp-develop\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1265,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -1278,24 +1293,9 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R&amp;"-,Italic"
 Trang &amp;P
@@ -1303,9 +1303,6 @@
     <oddFooter xml:space="preserve">&amp;R
 </oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qlns-ctc-bqp-develop\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,8 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Items__">'BC Tonghop'!$A$12:$I$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$I$35</definedName>
+    <definedName name="__Items__">'BC Tonghop'!$A$12:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$I$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$B$7:$I$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Số TT</t>
   </si>
@@ -141,12 +141,6 @@
     <t>&lt;#Items.STT&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.GhiChu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -168,30 +162,12 @@
     <t>&lt;#Header1&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.FHanMucDauTu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonDaGiao&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongVonBoTri&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriKeHoach&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonBoTri&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#Items.LoaiParent&gt;</t>
   </si>
   <si>
     <t>BỘ QUỐC PHÒNG</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>&lt;#ThuaLenh1&gt;</t>
   </si>
   <si>
@@ -235,6 +211,42 @@
   </si>
   <si>
     <t>&lt;#Ten4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FHanMucDauTu&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FVonDaGiao&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongVonBoTri&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriKeHoach&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FVonBoTri&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.GhiChu&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FTongVonBoTriSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FVonDaGiaoSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FGiaTriKeHoachSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FVonBoTriSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FHanMucDauTuSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +347,20 @@
     </font>
     <font>
       <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -460,7 +486,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -507,9 +533,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -527,6 +550,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,8 +588,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -871,15 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
@@ -895,13 +924,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" s="29"/>
     </row>
-    <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="20"/>
@@ -914,7 +943,7 @@
     <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -926,7 +955,7 @@
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -943,7 +972,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="37"/>
     </row>
@@ -980,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>3</v>
@@ -1019,7 +1048,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1052,34 +1081,29 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="22">
-        <f>SUMIF($A$12,0,D12:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
-        <f t="shared" ref="E11:H11" si="0">SUMIF($A$12,0,E12:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="22"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1090,196 +1114,201 @@
     </row>
     <row r="12" spans="1:16" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
-    <row r="13" spans="1:16" ht="19.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="F8:H8"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHanReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,16 +16,16 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Items__">'BC Tonghop'!$A$12:$I$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$I$25</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$B$7:$I$10</definedName>
+    <definedName name="__Items__">'BC Tonghop'!$A$12:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$A$7:$H$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Số TT</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>&lt;#Header1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.LoaiParent&gt;</t>
   </si>
   <si>
     <t>BỘ QUỐC PHÒNG</t>
@@ -900,226 +897,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="29"/>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
-    <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="39" t="s">
+    <row r="3" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="39" t="s">
         <v>44</v>
       </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="40" t="s">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="40" t="s">
         <v>41</v>
       </c>
+      <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:16" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
+      <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="D8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="21" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:15" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -1134,48 +1130,43 @@
       <c r="G12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1184,147 +1175,138 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
-        <v>52</v>
-      </c>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="42"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42" t="s">
-        <v>55</v>
-      </c>
+      <c r="F18" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="42"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="42"/>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="42" t="s">
-        <v>56</v>
-      </c>
+      <c r="F21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="42"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="42"/>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="42" t="s">
-        <v>57</v>
-      </c>
+      <c r="F22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="42"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="42" t="s">
-        <v>58</v>
-      </c>
+      <c r="F24" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26"/>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="26"/>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="26"/>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R&amp;"-,Italic"
 Trang &amp;P
@@ -1332,6 +1314,9 @@
     <oddFooter xml:space="preserve">&amp;R
 </oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="42" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
